--- a/data/hotels_by_city/Dallas/Dallas_shard_593.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_593.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,153 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d5541402-r472270178-Motel_6_Mesquite_TX_Rodeo_Convention_Ctr-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>56280</t>
+  </si>
+  <si>
+    <t>5541402</t>
+  </si>
+  <si>
+    <t>472270178</t>
+  </si>
+  <si>
+    <t>04/02/2017</t>
+  </si>
+  <si>
+    <t>NO STORAGE!!!</t>
+  </si>
+  <si>
+    <t>When I fist called this property I told them I wanted a King size bed. She told me that it would be 300 for the week...... what your crazy right. That's cheap!!!  Upon arrival the lady was nice at first until she gave me a queen room instead the king I requested over the phone. But she did finally tell me that. It was like she was talking to some one that was below her. Stating that they leave those rooms for the normal quest. Like what are you serious. I'm not a normal guest. What am I. Chopped liver. Once we get in the room we had one table one chair and and one end table that was attached to the bed. NO STORAGE AT ALL!!! The room wasn't to bad in the cleaning realm of things. But everyday she did come into clean it would be give us new towels. Sweep and mop the floors that was it. Didn't touch the shower or toilet that whole the entire time we where there. You would get clean towels everyday if you could call them that. There is contestant traffic in and out. Knocking on doors and people being loud till 3 or 4 in the morning. I would only stay there if it was for one night only not for consecutive days. I would advice the Days Inn and spending 3 to 5 more dollars a night.  MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>When I fist called this property I told them I wanted a King size bed. She told me that it would be 300 for the week...... what your crazy right. That's cheap!!!  Upon arrival the lady was nice at first until she gave me a queen room instead the king I requested over the phone. But she did finally tell me that. It was like she was talking to some one that was below her. Stating that they leave those rooms for the normal quest. Like what are you serious. I'm not a normal guest. What am I. Chopped liver. Once we get in the room we had one table one chair and and one end table that was attached to the bed. NO STORAGE AT ALL!!! The room wasn't to bad in the cleaning realm of things. But everyday she did come into clean it would be give us new towels. Sweep and mop the floors that was it. Didn't touch the shower or toilet that whole the entire time we where there. You would get clean towels everyday if you could call them that. There is contestant traffic in and out. Knocking on doors and people being loud till 3 or 4 in the morning. I would only stay there if it was for one night only not for consecutive days. I would advice the Days Inn and spending 3 to 5 more dollars a night.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d5541402-r431234160-Motel_6_Mesquite_TX_Rodeo_Convention_Ctr-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>431234160</t>
+  </si>
+  <si>
+    <t>10/24/2016</t>
+  </si>
+  <si>
+    <t>Feces riden &amp; Filthy!</t>
+  </si>
+  <si>
+    <t>My husband and I checked into this lovely establishment for 1 night. Upon entering the front desk "office" we were not greeted but rudely brushed off while Donna the front desk agent was finishing up her phone call. She slid a paper under the window and told me to sign. Mind you, she didn't explain anything about the document. We were put into room 202. After a long 5 hour drive in all we wanted to do was rest up for the next day. Upon entering our room it reeked of feces (like the toilet had been clogged; feces remaining for several days; then repaired). The duvet cover on the bed was stained and the room just overall nasty. We were immediately disgusted with the presentation and went down to check out. Donna stated she could not provide me anything stating that I checked in. She acted as though we were an inconvenience to her. Even at one point she apparently couldn't hear me so she began to yell through the window. Very rude, hospitality employees should have common manners and know how to address issues as they are presented. We will NOT be returning to this nasty dump!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>My husband and I checked into this lovely establishment for 1 night. Upon entering the front desk "office" we were not greeted but rudely brushed off while Donna the front desk agent was finishing up her phone call. She slid a paper under the window and told me to sign. Mind you, she didn't explain anything about the document. We were put into room 202. After a long 5 hour drive in all we wanted to do was rest up for the next day. Upon entering our room it reeked of feces (like the toilet had been clogged; feces remaining for several days; then repaired). The duvet cover on the bed was stained and the room just overall nasty. We were immediately disgusted with the presentation and went down to check out. Donna stated she could not provide me anything stating that I checked in. She acted as though we were an inconvenience to her. Even at one point she apparently couldn't hear me so she began to yell through the window. Very rude, hospitality employees should have common manners and know how to address issues as they are presented. We will NOT be returning to this nasty dump!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d5541402-r296386734-Motel_6_Mesquite_TX_Rodeo_Convention_Ctr-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>296386734</t>
+  </si>
+  <si>
+    <t>08/06/2015</t>
+  </si>
+  <si>
+    <t>Keep looking!</t>
+  </si>
+  <si>
+    <t>After checking in, and dragging my stuff up steps in 100 degree weather, room card didn't work. Dragging everything back to office, given 2 more cards, didn't work. Dragging stuff back to office,  was told she would be with me "in a minute''. 2 hours later she informed me she no longer had a smoking room. The owner stood to the side, offering no help to desk clerk or customers. I  did have entertainment during my 2 hour wait with a yelling young woman, the desk clerk and the local law enforcement. I asked the owner if he didn't even want to "try" to gain access to my room, he just looked blankly at me. Refund has not bn received yet. Days Inn, Hillsboro, TX was happy to have me as a guest. Motel 6 needs to take a hard look at this place!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>6Team, brand expericened team member at Motel 6 Mesquite, TX Rodeo - Convention Ctr, responded to this reviewResponded August 7, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 7, 2015</t>
+  </si>
+  <si>
+    <t>After checking in, and dragging my stuff up steps in 100 degree weather, room card didn't work. Dragging everything back to office, given 2 more cards, didn't work. Dragging stuff back to office,  was told she would be with me "in a minute''. 2 hours later she informed me she no longer had a smoking room. The owner stood to the side, offering no help to desk clerk or customers. I  did have entertainment during my 2 hour wait with a yelling young woman, the desk clerk and the local law enforcement. I asked the owner if he didn't even want to "try" to gain access to my room, he just looked blankly at me. Refund has not bn received yet. Days Inn, Hillsboro, TX was happy to have me as a guest. Motel 6 needs to take a hard look at this place!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d5541402-r272211675-Motel_6_Mesquite_TX_Rodeo_Convention_Ctr-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>272211675</t>
+  </si>
+  <si>
+    <t>05/15/2015</t>
+  </si>
+  <si>
+    <t>My second home</t>
+  </si>
+  <si>
+    <t>I've had nothing but a good experience here. Room service is very polite to me. They make sure my room is vacuumed an the tubs are clean. Sheets an towels are always clean an my room smells wonderful after they leave. Thank you Motel 6 for your wonderful service.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d5541402-r267015133-Motel_6_Mesquite_TX_Rodeo_Convention_Ctr-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>267015133</t>
+  </si>
+  <si>
+    <t>04/21/2015</t>
+  </si>
+  <si>
+    <t>I stayed here for my Birthday weekend</t>
+  </si>
+  <si>
+    <t>I stayed at this Motel 6 in Mesquite, TX for my birthday weekend.  The best part is that it is right next to several great restaurants and shopping places.  The area is a very busy place.  There were lots of people eating at the IHOP right in front of the hotel when I left out on Sunday.  The Hotel staff at the front desk was very nice.  Kenda and Anjelica went above and beyond to make sure I had a great stay.  The room rates were extremely reasonable.    A few things were needing work.  When I did sit down to watch t.v. the guide button on the remote did not work.  Also, I don't know if it was just my phone, but I could not connect to the free Wi-Fi for some reason.  One bad part was the light over the sink did not work.  The cleaning lady for room service said she will tell maintenance.  Also, you had to shut the door really hard to get it to close.  One good thing is that the room I stayed in had been updated.  It had hardwood floors which were nice and I loved the orange statement wall.  Also,  when I went to take a shower, I thought there was no hot water.  But, actually the labels were wrong.  Hot was actually cold, and cold was actually hot.  Overall though, my stay was good considering I just needed a place to...I stayed at this Motel 6 in Mesquite, TX for my birthday weekend.  The best part is that it is right next to several great restaurants and shopping places.  The area is a very busy place.  There were lots of people eating at the IHOP right in front of the hotel when I left out on Sunday.  The Hotel staff at the front desk was very nice.  Kenda and Anjelica went above and beyond to make sure I had a great stay.  The room rates were extremely reasonable.    A few things were needing work.  When I did sit down to watch t.v. the guide button on the remote did not work.  Also, I don't know if it was just my phone, but I could not connect to the free Wi-Fi for some reason.  One bad part was the light over the sink did not work.  The cleaning lady for room service said she will tell maintenance.  Also, you had to shut the door really hard to get it to close.  One good thing is that the room I stayed in had been updated.  It had hardwood floors which were nice and I loved the orange statement wall.  Also,  when I went to take a shower, I thought there was no hot water.  But, actually the labels were wrong.  Hot was actually cold, and cold was actually hot.  Overall though, my stay was good considering I just needed a place to really sleep while I enjoyed the remainder of my trip doing things away from the hotel.  The area overall is a safe place to stay too.  I had dropped something outside overnight.  Seven hours later it was found and returned to me in one piece!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>I stayed at this Motel 6 in Mesquite, TX for my birthday weekend.  The best part is that it is right next to several great restaurants and shopping places.  The area is a very busy place.  There were lots of people eating at the IHOP right in front of the hotel when I left out on Sunday.  The Hotel staff at the front desk was very nice.  Kenda and Anjelica went above and beyond to make sure I had a great stay.  The room rates were extremely reasonable.    A few things were needing work.  When I did sit down to watch t.v. the guide button on the remote did not work.  Also, I don't know if it was just my phone, but I could not connect to the free Wi-Fi for some reason.  One bad part was the light over the sink did not work.  The cleaning lady for room service said she will tell maintenance.  Also, you had to shut the door really hard to get it to close.  One good thing is that the room I stayed in had been updated.  It had hardwood floors which were nice and I loved the orange statement wall.  Also,  when I went to take a shower, I thought there was no hot water.  But, actually the labels were wrong.  Hot was actually cold, and cold was actually hot.  Overall though, my stay was good considering I just needed a place to...I stayed at this Motel 6 in Mesquite, TX for my birthday weekend.  The best part is that it is right next to several great restaurants and shopping places.  The area is a very busy place.  There were lots of people eating at the IHOP right in front of the hotel when I left out on Sunday.  The Hotel staff at the front desk was very nice.  Kenda and Anjelica went above and beyond to make sure I had a great stay.  The room rates were extremely reasonable.    A few things were needing work.  When I did sit down to watch t.v. the guide button on the remote did not work.  Also, I don't know if it was just my phone, but I could not connect to the free Wi-Fi for some reason.  One bad part was the light over the sink did not work.  The cleaning lady for room service said she will tell maintenance.  Also, you had to shut the door really hard to get it to close.  One good thing is that the room I stayed in had been updated.  It had hardwood floors which were nice and I loved the orange statement wall.  Also,  when I went to take a shower, I thought there was no hot water.  But, actually the labels were wrong.  Hot was actually cold, and cold was actually hot.  Overall though, my stay was good considering I just needed a place to really sleep while I enjoyed the remainder of my trip doing things away from the hotel.  The area overall is a safe place to stay too.  I had dropped something outside overnight.  Seven hours later it was found and returned to me in one piece!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d5541402-r259866393-Motel_6_Mesquite_TX_Rodeo_Convention_Ctr-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>259866393</t>
+  </si>
+  <si>
+    <t>03/16/2015</t>
+  </si>
+  <si>
+    <t>Horrible</t>
+  </si>
+  <si>
+    <t>Hotel wouldn't even bother to clean my room even though I told them it smelled like piss in the bathroom. Bed covers had cigarette burns in them. If you still choose to go..hope you don't get sick/skin rash! Cuz apparently they only clean whenever the heck they feel like it!</t>
+  </si>
+  <si>
+    <t>March 2015</t>
   </si>
 </sst>
 </file>
@@ -645,6 +792,376 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>21658</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>21658</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>1</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>1</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>21658</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>69</v>
+      </c>
+      <c r="X4" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>21658</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" t="s">
+        <v>78</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>21658</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>84</v>
+      </c>
+      <c r="O6" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>21658</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L7" t="s">
+        <v>90</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_593.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_593.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Keegan S</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t>When I fist called this property I told them I wanted a King size bed. She told me that it would be 300 for the week...... what your crazy right. That's cheap!!!  Upon arrival the lady was nice at first until she gave me a queen room instead the king I requested over the phone. But she did finally tell me that. It was like she was talking to some one that was below her. Stating that they leave those rooms for the normal quest. Like what are you serious. I'm not a normal guest. What am I. Chopped liver. Once we get in the room we had one table one chair and and one end table that was attached to the bed. NO STORAGE AT ALL!!! The room wasn't to bad in the cleaning realm of things. But everyday she did come into clean it would be give us new towels. Sweep and mop the floors that was it. Didn't touch the shower or toilet that whole the entire time we where there. You would get clean towels everyday if you could call them that. There is contestant traffic in and out. Knocking on doors and people being loud till 3 or 4 in the morning. I would only stay there if it was for one night only not for consecutive days. I would advice the Days Inn and spending 3 to 5 more dollars a night.  More</t>
   </si>
   <si>
+    <t>Renada V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d5541402-r431234160-Motel_6_Mesquite_TX_Rodeo_Convention_Ctr-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -204,6 +210,9 @@
     <t>My husband and I checked into this lovely establishment for 1 night. Upon entering the front desk "office" we were not greeted but rudely brushed off while Donna the front desk agent was finishing up her phone call. She slid a paper under the window and told me to sign. Mind you, she didn't explain anything about the document. We were put into room 202. After a long 5 hour drive in all we wanted to do was rest up for the next day. Upon entering our room it reeked of feces (like the toilet had been clogged; feces remaining for several days; then repaired). The duvet cover on the bed was stained and the room just overall nasty. We were immediately disgusted with the presentation and went down to check out. Donna stated she could not provide me anything stating that I checked in. She acted as though we were an inconvenience to her. Even at one point she apparently couldn't hear me so she began to yell through the window. Very rude, hospitality employees should have common manners and know how to address issues as they are presented. We will NOT be returning to this nasty dump!More</t>
   </si>
   <si>
+    <t>sleepinonthebeach</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d5541402-r296386734-Motel_6_Mesquite_TX_Rodeo_Convention_Ctr-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -234,6 +243,9 @@
     <t>After checking in, and dragging my stuff up steps in 100 degree weather, room card didn't work. Dragging everything back to office, given 2 more cards, didn't work. Dragging stuff back to office,  was told she would be with me "in a minute''. 2 hours later she informed me she no longer had a smoking room. The owner stood to the side, offering no help to desk clerk or customers. I  did have entertainment during my 2 hour wait with a yelling young woman, the desk clerk and the local law enforcement. I asked the owner if he didn't even want to "try" to gain access to my room, he just looked blankly at me. Refund has not bn received yet. Days Inn, Hillsboro, TX was happy to have me as a guest. Motel 6 needs to take a hard look at this place!More</t>
   </si>
   <si>
+    <t>Dreadheadtrucker</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d5541402-r272211675-Motel_6_Mesquite_TX_Rodeo_Convention_Ctr-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -255,6 +267,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>LifetimeVacation</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d5541402-r267015133-Motel_6_Mesquite_TX_Rodeo_Convention_Ctr-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -274,6 +289,9 @@
   </si>
   <si>
     <t>I stayed at this Motel 6 in Mesquite, TX for my birthday weekend.  The best part is that it is right next to several great restaurants and shopping places.  The area is a very busy place.  There were lots of people eating at the IHOP right in front of the hotel when I left out on Sunday.  The Hotel staff at the front desk was very nice.  Kenda and Anjelica went above and beyond to make sure I had a great stay.  The room rates were extremely reasonable.    A few things were needing work.  When I did sit down to watch t.v. the guide button on the remote did not work.  Also, I don't know if it was just my phone, but I could not connect to the free Wi-Fi for some reason.  One bad part was the light over the sink did not work.  The cleaning lady for room service said she will tell maintenance.  Also, you had to shut the door really hard to get it to close.  One good thing is that the room I stayed in had been updated.  It had hardwood floors which were nice and I loved the orange statement wall.  Also,  when I went to take a shower, I thought there was no hot water.  But, actually the labels were wrong.  Hot was actually cold, and cold was actually hot.  Overall though, my stay was good considering I just needed a place to...I stayed at this Motel 6 in Mesquite, TX for my birthday weekend.  The best part is that it is right next to several great restaurants and shopping places.  The area is a very busy place.  There were lots of people eating at the IHOP right in front of the hotel when I left out on Sunday.  The Hotel staff at the front desk was very nice.  Kenda and Anjelica went above and beyond to make sure I had a great stay.  The room rates were extremely reasonable.    A few things were needing work.  When I did sit down to watch t.v. the guide button on the remote did not work.  Also, I don't know if it was just my phone, but I could not connect to the free Wi-Fi for some reason.  One bad part was the light over the sink did not work.  The cleaning lady for room service said she will tell maintenance.  Also, you had to shut the door really hard to get it to close.  One good thing is that the room I stayed in had been updated.  It had hardwood floors which were nice and I loved the orange statement wall.  Also,  when I went to take a shower, I thought there was no hot water.  But, actually the labels were wrong.  Hot was actually cold, and cold was actually hot.  Overall though, my stay was good considering I just needed a place to really sleep while I enjoyed the remainder of my trip doing things away from the hotel.  The area overall is a safe place to stay too.  I had dropped something outside overnight.  Seven hours later it was found and returned to me in one piece!More</t>
+  </si>
+  <si>
+    <t>Frank L</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d5541402-r259866393-Motel_6_Mesquite_TX_Rodeo_Convention_Ctr-Mesquite_Texas.html</t>
@@ -796,43 +814,47 @@
       <c r="A2" t="n">
         <v>21658</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>169487</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -846,50 +868,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>21658</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>169488</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -909,50 +935,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>21658</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>169489</v>
+      </c>
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="O4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
@@ -970,56 +1000,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="X4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>21658</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>169490</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="J5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="M5" t="n">
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="O5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1033,50 +1067,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>21658</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>169491</v>
+      </c>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="J6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="K6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="L6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="O6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="P6" t="n">
         <v>4</v>
@@ -1096,50 +1134,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>21658</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>21542</v>
+      </c>
+      <c r="C7" t="s">
+        <v>91</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="J7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="K7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="L7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="O7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
@@ -1159,7 +1201,7 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_593.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_593.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="127">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,81 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Keegan S</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/26/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d5541402-r589056660-Motel_6_Mesquite_TX_Rodeo_Convention_Ctr-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>56280</t>
+  </si>
+  <si>
+    <t>5541402</t>
+  </si>
+  <si>
+    <t>589056660</t>
+  </si>
+  <si>
+    <t>06/19/2018</t>
+  </si>
+  <si>
+    <t>Reasonable Price &amp; Comfortable</t>
+  </si>
+  <si>
+    <t>Our room with two beds was roomy and comfortable. We enjoy that motel 6 has hardwood floors instead  of musty carpeted floors. Microwave and fridge in room but no in room coffeemaker. However IHop is next door so very handy. Large roomy bathroom. Friendly front desk. Overall good location. AC worked great .</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d5541402-r569794322-Motel_6_Mesquite_TX_Rodeo_Convention_Ctr-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>569794322</t>
+  </si>
+  <si>
+    <t>03/30/2018</t>
+  </si>
+  <si>
+    <t>Warning , hotel has no towels.....</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My company paid for this place or else i would not have stayed here. Dirty sheets and bed spreads. Pilllows are little lumps of cloth. I asked the ft desk for a towel as they didnt leave any in the room. I was told by the night guy 3-30-18 that they had none and he couldent help me. What a crock. Save your money and go elsewhere. </t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d5541402-r540473467-Motel_6_Mesquite_TX_Rodeo_Convention_Ctr-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>540473467</t>
+  </si>
+  <si>
+    <t>11/12/2017</t>
+  </si>
+  <si>
+    <t>NICE PLACE....</t>
+  </si>
+  <si>
+    <t>I stopped in here one night after a Cowboys game to avoid a long 2 hour trip home, for the money I was pleasantly surprised at how nice the room was. Right off 635, so was very convenient to run get food.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d5541402-r472270178-Motel_6_Mesquite_TX_Rodeo_Convention_Ctr-Mesquite_Texas.html</t>
   </si>
   <si>
-    <t>56280</t>
-  </si>
-  <si>
-    <t>5541402</t>
-  </si>
-  <si>
     <t>472270178</t>
   </si>
   <si>
@@ -177,15 +237,9 @@
     <t>April 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>When I fist called this property I told them I wanted a King size bed. She told me that it would be 300 for the week...... what your crazy right. That's cheap!!!  Upon arrival the lady was nice at first until she gave me a queen room instead the king I requested over the phone. But she did finally tell me that. It was like she was talking to some one that was below her. Stating that they leave those rooms for the normal quest. Like what are you serious. I'm not a normal guest. What am I. Chopped liver. Once we get in the room we had one table one chair and and one end table that was attached to the bed. NO STORAGE AT ALL!!! The room wasn't to bad in the cleaning realm of things. But everyday she did come into clean it would be give us new towels. Sweep and mop the floors that was it. Didn't touch the shower or toilet that whole the entire time we where there. You would get clean towels everyday if you could call them that. There is contestant traffic in and out. Knocking on doors and people being loud till 3 or 4 in the morning. I would only stay there if it was for one night only not for consecutive days. I would advice the Days Inn and spending 3 to 5 more dollars a night.  More</t>
   </si>
   <si>
-    <t>Renada V</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d5541402-r431234160-Motel_6_Mesquite_TX_Rodeo_Convention_Ctr-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -210,9 +264,6 @@
     <t>My husband and I checked into this lovely establishment for 1 night. Upon entering the front desk "office" we were not greeted but rudely brushed off while Donna the front desk agent was finishing up her phone call. She slid a paper under the window and told me to sign. Mind you, she didn't explain anything about the document. We were put into room 202. After a long 5 hour drive in all we wanted to do was rest up for the next day. Upon entering our room it reeked of feces (like the toilet had been clogged; feces remaining for several days; then repaired). The duvet cover on the bed was stained and the room just overall nasty. We were immediately disgusted with the presentation and went down to check out. Donna stated she could not provide me anything stating that I checked in. She acted as though we were an inconvenience to her. Even at one point she apparently couldn't hear me so she began to yell through the window. Very rude, hospitality employees should have common manners and know how to address issues as they are presented. We will NOT be returning to this nasty dump!More</t>
   </si>
   <si>
-    <t>sleepinonthebeach</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d5541402-r296386734-Motel_6_Mesquite_TX_Rodeo_Convention_Ctr-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -231,9 +282,6 @@
     <t>August 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>6Team, brand expericened team member at Motel 6 Mesquite, TX Rodeo - Convention Ctr, responded to this reviewResponded August 7, 2015</t>
   </si>
   <si>
@@ -243,7 +291,40 @@
     <t>After checking in, and dragging my stuff up steps in 100 degree weather, room card didn't work. Dragging everything back to office, given 2 more cards, didn't work. Dragging stuff back to office,  was told she would be with me "in a minute''. 2 hours later she informed me she no longer had a smoking room. The owner stood to the side, offering no help to desk clerk or customers. I  did have entertainment during my 2 hour wait with a yelling young woman, the desk clerk and the local law enforcement. I asked the owner if he didn't even want to "try" to gain access to my room, he just looked blankly at me. Refund has not bn received yet. Days Inn, Hillsboro, TX was happy to have me as a guest. Motel 6 needs to take a hard look at this place!More</t>
   </si>
   <si>
-    <t>Dreadheadtrucker</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d5541402-r285188250-Motel_6_Mesquite_TX_Rodeo_Convention_Ctr-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>285188250</t>
+  </si>
+  <si>
+    <t>07/02/2015</t>
+  </si>
+  <si>
+    <t>Perfectly fine</t>
+  </si>
+  <si>
+    <t>We stayed here for one night on a road trip.   This certainly is not a luxury hotel but the room was clean and recently refurbished.   Fresh paint and wood style floors make the room seem fresher.   Price was excellent.  Good one night stop and would stayhere again.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d5541402-r278504892-Motel_6_Mesquite_TX_Rodeo_Convention_Ctr-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>278504892</t>
+  </si>
+  <si>
+    <t>06/07/2015</t>
+  </si>
+  <si>
+    <t>Good stay at a good price</t>
+  </si>
+  <si>
+    <t>I stay at this property about once per 90 days for 3 to 4 days at a time.  The staff is friendly and courteous.  Rooms are clean, owner is currently remodeling rooms by adding hardwood flooring and new vanity/sinks.I would recommend this motel to anyone for a short stay while in the Mesquite area.  On the weekend you will need to book your room early as the motel is often full on Friday and Saturday by approximately 9pm.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d5541402-r272211675-Motel_6_Mesquite_TX_Rodeo_Convention_Ctr-Mesquite_Texas.html</t>
@@ -267,9 +348,6 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
-    <t>LifetimeVacation</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d5541402-r267015133-Motel_6_Mesquite_TX_Rodeo_Convention_Ctr-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -291,9 +369,6 @@
     <t>I stayed at this Motel 6 in Mesquite, TX for my birthday weekend.  The best part is that it is right next to several great restaurants and shopping places.  The area is a very busy place.  There were lots of people eating at the IHOP right in front of the hotel when I left out on Sunday.  The Hotel staff at the front desk was very nice.  Kenda and Anjelica went above and beyond to make sure I had a great stay.  The room rates were extremely reasonable.    A few things were needing work.  When I did sit down to watch t.v. the guide button on the remote did not work.  Also, I don't know if it was just my phone, but I could not connect to the free Wi-Fi for some reason.  One bad part was the light over the sink did not work.  The cleaning lady for room service said she will tell maintenance.  Also, you had to shut the door really hard to get it to close.  One good thing is that the room I stayed in had been updated.  It had hardwood floors which were nice and I loved the orange statement wall.  Also,  when I went to take a shower, I thought there was no hot water.  But, actually the labels were wrong.  Hot was actually cold, and cold was actually hot.  Overall though, my stay was good considering I just needed a place to...I stayed at this Motel 6 in Mesquite, TX for my birthday weekend.  The best part is that it is right next to several great restaurants and shopping places.  The area is a very busy place.  There were lots of people eating at the IHOP right in front of the hotel when I left out on Sunday.  The Hotel staff at the front desk was very nice.  Kenda and Anjelica went above and beyond to make sure I had a great stay.  The room rates were extremely reasonable.    A few things were needing work.  When I did sit down to watch t.v. the guide button on the remote did not work.  Also, I don't know if it was just my phone, but I could not connect to the free Wi-Fi for some reason.  One bad part was the light over the sink did not work.  The cleaning lady for room service said she will tell maintenance.  Also, you had to shut the door really hard to get it to close.  One good thing is that the room I stayed in had been updated.  It had hardwood floors which were nice and I loved the orange statement wall.  Also,  when I went to take a shower, I thought there was no hot water.  But, actually the labels were wrong.  Hot was actually cold, and cold was actually hot.  Overall though, my stay was good considering I just needed a place to really sleep while I enjoyed the remainder of my trip doing things away from the hotel.  The area overall is a safe place to stay too.  I had dropped something outside overnight.  Seven hours later it was found and returned to me in one piece!More</t>
   </si>
   <si>
-    <t>Frank L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d5541402-r259866393-Motel_6_Mesquite_TX_Rodeo_Convention_Ctr-Mesquite_Texas.html</t>
   </si>
   <si>
@@ -310,6 +385,18 @@
   </si>
   <si>
     <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56280-d5541402-r225204137-Motel_6_Mesquite_TX_Rodeo_Convention_Ctr-Mesquite_Texas.html</t>
+  </si>
+  <si>
+    <t>225204137</t>
+  </si>
+  <si>
+    <t>08/29/2014</t>
+  </si>
+  <si>
+    <t>I stayed in this motel for 2 days with my girlfriend and our sheets had stains on them and their sheets broke my body out, leaving my entire body itching for two days!!! That ruined my whole perspective of the motel!</t>
   </si>
 </sst>
 </file>
@@ -814,47 +901,43 @@
       <c r="A2" t="n">
         <v>21658</v>
       </c>
-      <c r="B2" t="n">
-        <v>169487</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>2</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -868,192 +951,168 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>21658</v>
       </c>
-      <c r="B3" t="n">
-        <v>169488</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>57</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L3" t="s">
-        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="O3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P3" t="s"/>
-      <c r="Q3" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q3" t="s"/>
       <c r="R3" t="s"/>
-      <c r="S3" t="n">
-        <v>1</v>
-      </c>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>1</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>21658</v>
       </c>
-      <c r="B4" t="n">
-        <v>169489</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>65</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="O4" t="s">
         <v>66</v>
-      </c>
-      <c r="J4" t="s">
-        <v>67</v>
-      </c>
-      <c r="K4" t="s">
-        <v>68</v>
-      </c>
-      <c r="L4" t="s">
-        <v>69</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>70</v>
-      </c>
-      <c r="O4" t="s">
-        <v>71</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R4" t="s"/>
-      <c r="S4" t="n">
-        <v>1</v>
-      </c>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
-        <v>72</v>
-      </c>
-      <c r="X4" t="s">
-        <v>73</v>
-      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>21658</v>
       </c>
-      <c r="B5" t="n">
-        <v>169490</v>
-      </c>
-      <c r="C5" t="s">
-        <v>75</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
         <v>46</v>
       </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="M5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="O5" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1067,66 +1126,62 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>21658</v>
       </c>
-      <c r="B6" t="n">
-        <v>169491</v>
-      </c>
-      <c r="C6" t="s">
-        <v>83</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
         <v>46</v>
       </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
       <c r="I6" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="L6" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="O6" t="s">
-        <v>82</v>
-      </c>
-      <c r="P6" t="n">
-        <v>4</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="P6" t="s"/>
       <c r="Q6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1134,54 +1189,50 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>21658</v>
       </c>
-      <c r="B7" t="n">
-        <v>21542</v>
-      </c>
-      <c r="C7" t="s">
-        <v>91</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
         <v>46</v>
       </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="J7" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="K7" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="L7" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="O7" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="n">
@@ -1198,10 +1249,384 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
+      <c r="W7" t="s">
+        <v>88</v>
+      </c>
+      <c r="X7" t="s">
+        <v>89</v>
+      </c>
       <c r="Y7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>21658</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>91</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>92</v>
+      </c>
+      <c r="J8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
         <v>96</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>21658</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" t="s">
+        <v>100</v>
+      </c>
+      <c r="L9" t="s">
+        <v>101</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>102</v>
+      </c>
+      <c r="O9" t="s">
+        <v>59</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>21658</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" t="s">
+        <v>106</v>
+      </c>
+      <c r="L10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>108</v>
+      </c>
+      <c r="O10" t="s">
+        <v>109</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>21658</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11" t="s">
+        <v>112</v>
+      </c>
+      <c r="K11" t="s">
+        <v>113</v>
+      </c>
+      <c r="L11" t="s">
+        <v>114</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>115</v>
+      </c>
+      <c r="O11" t="s">
+        <v>109</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>21658</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>118</v>
+      </c>
+      <c r="J12" t="s">
+        <v>119</v>
+      </c>
+      <c r="K12" t="s">
+        <v>120</v>
+      </c>
+      <c r="L12" t="s">
+        <v>121</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>122</v>
+      </c>
+      <c r="O12" t="s">
+        <v>59</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>21658</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>124</v>
+      </c>
+      <c r="J13" t="s">
+        <v>125</v>
+      </c>
+      <c r="K13" t="s">
+        <v>120</v>
+      </c>
+      <c r="L13" t="s">
+        <v>126</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
